--- a/Excel/FLL_Website_Content_1_126_0600am.xlsx
+++ b/Excel/FLL_Website_Content_1_126_0600am.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Conra\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarah\Documents\GitHub\FFLSupport\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="25200" windowHeight="11676" tabRatio="908" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="12390" windowHeight="1200" tabRatio="908" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Categories" sheetId="13" r:id="rId1"/>
     <sheet name="All" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">All!$A$1:$D$197</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">All!$A$1:$D$199</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="351">
   <si>
     <t xml:space="preserve">Category </t>
   </si>
@@ -253,9 +253,6 @@
   </si>
   <si>
     <t>http://iamboeing.web.boeing.com/index.aspx?com=1&amp;id=162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enterprise EHS </t>
   </si>
   <si>
     <t>http://ehs.web.boeing.com/index.aspx?com=1&amp;id=1</t>
@@ -1067,13 +1064,31 @@
   </si>
   <si>
     <t>Introduction to Value Stream Mapping (VSM) (TR006817)</t>
+  </si>
+  <si>
+    <t>Audit Preparation</t>
+  </si>
+  <si>
+    <t>http://quality.ca.boeing.com/audit_prep/auditprephome.html</t>
+  </si>
+  <si>
+    <t>same as EHS link above</t>
+  </si>
+  <si>
+    <t>Enterprise Environment, Health &amp; Saftey (EHS)</t>
+  </si>
+  <si>
+    <t>https://marsprod.web.boeing.com:8084/mars/home?0</t>
+  </si>
+  <si>
+    <t>My Account Request System (MARS)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1111,6 +1126,29 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1187,12 +1225,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1213,9 +1245,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1225,12 +1254,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1518,154 +1552,154 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
-    <col min="3" max="3" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="C2" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>222</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C5" s="14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>288</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="B8" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>223</v>
-      </c>
-      <c r="B5" s="6" t="s">
+    <row r="9" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>289</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="C11" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>190</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>189</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C12" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>171</v>
+        <v>179</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1676,22 +1710,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E197"/>
+  <dimension ref="A1:E199"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B145" sqref="B145"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" customWidth="1"/>
-    <col min="2" max="2" width="51.77734375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="119.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="119.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1702,238 +1735,238 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="D2" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="16">
+        <v>7</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="D14" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="D2" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="B15" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="D15" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="B16" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="D16" s="24">
+        <v>7</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="D4" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="18">
+      <c r="B17" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="D17" s="24">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="18">
-        <v>7</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="D14" s="27">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="D15" s="27">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="D16" s="27">
-        <v>7</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="D17" s="27">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>11</v>
@@ -1942,187 +1975,187 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="8" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>188</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>189</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="6" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>188</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>189</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>188</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>189</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="D28"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D28"/>
-    </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>189</v>
-      </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C30" s="11">
         <v>755231</v>
       </c>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C31" s="11">
         <v>754721</v>
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C32" s="11">
         <v>754722</v>
       </c>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C33" s="11">
         <v>754723</v>
       </c>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -2133,7 +2166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -2144,7 +2177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -2155,7 +2188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>4</v>
       </c>
@@ -2166,1762 +2199,1781 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>4</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>4</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>4</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C44" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>4</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>4</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>4</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>4</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>4</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>4</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>4</v>
       </c>
       <c r="B51" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C51" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>4</v>
       </c>
       <c r="B52" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>4</v>
       </c>
       <c r="B53" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>4</v>
       </c>
       <c r="B54" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>4</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C55" s="11">
         <v>755595</v>
       </c>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>4</v>
       </c>
       <c r="B56" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C56" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="C56" s="13" t="s">
-        <v>270</v>
-      </c>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>223</v>
-      </c>
-      <c r="B57" s="6" t="s">
+    <row r="57" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B57" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>223</v>
-      </c>
-      <c r="B58" s="6" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B58" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>223</v>
-      </c>
-      <c r="B59" s="6" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B59" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="8" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>223</v>
-      </c>
-      <c r="B60" s="6" t="s">
+      <c r="C59" s="17" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B60" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>223</v>
-      </c>
-      <c r="B61" s="6" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C61" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>223</v>
-      </c>
-      <c r="B62" s="6" t="s">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C62" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>223</v>
-      </c>
-      <c r="B63" s="6" t="s">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C63" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>223</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="11">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="18">
         <v>77519</v>
       </c>
       <c r="D64" s="3"/>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>223</v>
-      </c>
-      <c r="B65" s="6" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C65" s="18">
+        <v>78961</v>
+      </c>
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>169</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="B80" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="C80" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D82" s="12"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="C83" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="D83" s="3"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>287</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="D86" s="3"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>189</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>189</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>189</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>189</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>189</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>189</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>189</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C93" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C65" s="11">
-        <v>78961</v>
-      </c>
-      <c r="D65" s="3"/>
-    </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>223</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="D66" s="3"/>
-    </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="B67" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="C67" s="24" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>170</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="B69" s="18" t="s">
-        <v>307</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="B70" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="B71" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="C71" s="18" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="B72" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="C72" s="18" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="B73" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="C73" s="18" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="B74" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="C74" s="18" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="B75" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="C75" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="B76" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D76" s="12"/>
-    </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>288</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>288</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>288</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>288</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>288</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>288</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="D82" s="3"/>
-    </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>288</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="D83" s="3"/>
-    </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>288</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C84" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="D84" s="3"/>
-    </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>288</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="D85" s="3"/>
-    </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>288</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>190</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>190</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>190</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>190</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>190</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>190</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>190</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C93" s="11" t="s">
+      <c r="D93" s="3"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>189</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C94" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D93" s="3"/>
-    </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>190</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>151</v>
-      </c>
       <c r="D94" s="3"/>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C95" s="11">
         <v>755591</v>
       </c>
       <c r="D95" s="3"/>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C96" s="11">
         <v>755592</v>
       </c>
       <c r="D96" s="3"/>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C97" s="11">
         <v>755593</v>
       </c>
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C98" s="11">
         <v>755594</v>
       </c>
       <c r="D98" s="3"/>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C99" s="11">
         <v>755597</v>
       </c>
       <c r="D99" s="3"/>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C100" s="11">
         <v>755541</v>
       </c>
       <c r="D100" s="3"/>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C101" s="11">
         <v>755542</v>
       </c>
       <c r="D101" s="3"/>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C102" s="11">
         <v>755543</v>
       </c>
       <c r="D102" s="3"/>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C103" s="11">
         <v>755232</v>
       </c>
       <c r="D103" s="3"/>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C104" s="11">
         <v>755233</v>
       </c>
       <c r="D104" s="3"/>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C105" s="11">
         <v>755211</v>
       </c>
       <c r="D105" s="3"/>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C106" s="11">
         <v>755212</v>
       </c>
       <c r="D106" s="3"/>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C107" s="11">
         <v>754711</v>
       </c>
       <c r="D107" s="3"/>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C108" s="11">
         <v>754712</v>
       </c>
       <c r="D108" s="3"/>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C109" s="11">
         <v>754541</v>
       </c>
       <c r="D109" s="3"/>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C110" s="11">
         <v>754542</v>
       </c>
       <c r="D110" s="3"/>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C111" s="11">
         <v>754546</v>
       </c>
       <c r="D111" s="3"/>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C112" s="11">
         <v>754548</v>
       </c>
       <c r="D112" s="3"/>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C113" s="11">
         <v>7545411</v>
       </c>
       <c r="D113" s="3"/>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B114" s="6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>189</v>
+      </c>
+      <c r="B115" s="6" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>190</v>
-      </c>
-      <c r="B115" s="6" t="s">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>189</v>
+      </c>
+      <c r="B116" s="6" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>190</v>
-      </c>
-      <c r="B116" s="6" t="s">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>189</v>
+      </c>
+      <c r="B117" s="6" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>190</v>
-      </c>
-      <c r="B117" s="6" t="s">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>189</v>
+      </c>
+      <c r="B118" s="6" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>190</v>
-      </c>
-      <c r="B118" s="6" t="s">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>189</v>
+      </c>
+      <c r="B119" s="6" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>190</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C121" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D121" s="3"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>288</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B123" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C123" s="18">
+        <v>78960</v>
+      </c>
+      <c r="D123" s="3"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B124" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C124" s="18">
+        <v>78984</v>
+      </c>
+      <c r="D124" s="3"/>
+    </row>
+    <row r="125" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B125" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="C125" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B126" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C126" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B127" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C127" s="18">
+        <v>78983</v>
+      </c>
+      <c r="D127" s="3"/>
+    </row>
+    <row r="128" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B128" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C128" s="18">
+        <v>78975</v>
+      </c>
+      <c r="D128" s="3"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C129" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C130" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B131" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C131" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="D131" s="3"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B132" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C132" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="D132" s="3"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B133" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C133" s="17" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B134" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C134" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D134" s="3"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B135" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C135" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D135" s="3"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B136" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C136" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D136" s="3"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C137" s="18">
+        <v>78982</v>
+      </c>
+      <c r="D137" s="3"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B138" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C138" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B139" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C139" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A140" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B140" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" s="17" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B141" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C141" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D141" s="3"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B142" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C142" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B143" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C143" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B144" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="C144" s="17" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B145" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C145" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D145" s="3"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>170</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>170</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C147" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D147" s="3"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>170</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D148" s="3"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>170</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D149" s="3"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>170</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="D150" s="3"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>170</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D151" s="3"/>
+    </row>
+    <row r="152" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>170</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="D152" s="3"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>170</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C153" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="D153" s="3"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>170</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C154" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="D154" s="3"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>170</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C155" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D155" s="3"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>170</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C156" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D156" s="3"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>170</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C157" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D157" s="3"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>170</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C158" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="D158" s="3"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>170</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C159" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="D159" s="3"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>170</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C160" s="19"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>170</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C161" s="19"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>170</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C162" s="19"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>170</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C163" s="19"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>170</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C164" s="19"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>170</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="D121" s="3"/>
-    </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>289</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="22" t="s">
+      <c r="B166" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C166" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B167" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C167" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B168" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C168" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="D168" s="23"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>187</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>187</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B171" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C171" s="17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B172" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C172" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B173" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="C173" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="D173" s="23"/>
+    </row>
+    <row r="174" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B174" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C174" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B175" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="C175" s="18">
+        <v>7545410</v>
+      </c>
+      <c r="D175" s="23"/>
+    </row>
+    <row r="176" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B176" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C176" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B177" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="C177" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="D177" s="23"/>
+    </row>
+    <row r="178" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="B178" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C178" s="21"/>
+    </row>
+    <row r="179" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="B179" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="C179" s="21"/>
+    </row>
+    <row r="180" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B180" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="C180" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="D180" s="23"/>
+    </row>
+    <row r="181" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B181" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C181" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="D181" s="23"/>
+    </row>
+    <row r="182" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B182" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="C182" s="18">
+        <v>754549</v>
+      </c>
+      <c r="D182" s="23"/>
+    </row>
+    <row r="183" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B183" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C183" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D183" s="23"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>187</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B185" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C185" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D185" s="23"/>
+    </row>
+    <row r="186" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B186" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C186" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D186" s="23"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B188" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="C188" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="D188" s="23"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>187</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="B190" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C190" s="21"/>
+    </row>
+    <row r="191" spans="1:4" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A191" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B191" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C191" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="D191" s="23"/>
+    </row>
+    <row r="192" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B192" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="C192" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="D192" s="23"/>
+    </row>
+    <row r="193" spans="1:5" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A193" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B193" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C193" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B194" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C194" s="17" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>299</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>299</v>
+      </c>
+      <c r="B196" t="s">
+        <v>301</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B197" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="C197" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="D197" s="16">
+        <v>7</v>
+      </c>
+      <c r="E197" s="2"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B198" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="C198" s="17" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A199" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="B123" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="C123" s="28">
-        <v>78960</v>
-      </c>
-      <c r="D123" s="3"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="B124" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="C124" s="28">
-        <v>78984</v>
-      </c>
-      <c r="D124" s="3"/>
-    </row>
-    <row r="125" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A125" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="B125" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="C125" s="24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="B126" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C126" s="24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="B127" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="C127" s="28">
-        <v>78983</v>
-      </c>
-      <c r="D127" s="3"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="B128" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="C128" s="28">
-        <v>78975</v>
-      </c>
-      <c r="D128" s="3"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="B129" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C129" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="B130" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C130" s="24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="B131" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="C131" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="D131" s="3"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="B132" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="C132" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="D132" s="3"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="B133" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C133" s="24" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="B134" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="C134" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="D134" s="3"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="B135" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="C135" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="D135" s="3"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="B136" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="C136" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="D136" s="3"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="B137" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="C137" s="28">
-        <v>78982</v>
-      </c>
-      <c r="D137" s="3"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="B138" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C138" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="B139" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C139" s="23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A140" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="B140" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C140" s="24" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="B141" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="C141" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="D141" s="3"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="B142" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C142" s="24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A143" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="B143" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C143" s="24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="B144" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="C144" s="24" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="B145" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="C145" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="D145" s="3"/>
-    </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>171</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>171</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C147" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="D147" s="3"/>
-    </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>171</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C148" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="D148" s="3"/>
-    </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>171</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C149" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="D149" s="3"/>
-    </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>171</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C150" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="D150" s="3"/>
-    </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>171</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="C151" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="D151" s="3"/>
-    </row>
-    <row r="152" spans="1:4" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>171</v>
-      </c>
-      <c r="B152" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="C152" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="D152" s="3"/>
-    </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>171</v>
-      </c>
-      <c r="B153" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="C153" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="D153" s="3"/>
-    </row>
-    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>171</v>
-      </c>
-      <c r="B154" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="C154" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="D154" s="3"/>
-    </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>171</v>
-      </c>
-      <c r="B155" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C155" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="D155" s="3"/>
-    </row>
-    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>171</v>
-      </c>
-      <c r="B156" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="C156" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="D156" s="3"/>
-    </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>171</v>
-      </c>
-      <c r="B157" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="C157" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="D157" s="3"/>
-    </row>
-    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>171</v>
-      </c>
-      <c r="B158" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C158" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="D158" s="3"/>
-    </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>171</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="C159" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="D159" s="3"/>
-    </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>171</v>
-      </c>
-      <c r="B160" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="C160" s="21"/>
-    </row>
-    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>171</v>
-      </c>
-      <c r="B161" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="C161" s="21"/>
-    </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>171</v>
-      </c>
-      <c r="B162" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="C162" s="21"/>
-    </row>
-    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>171</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="C163" s="21"/>
-    </row>
-    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>171</v>
-      </c>
-      <c r="B164" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="C164" s="21"/>
-    </row>
-    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>171</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="B166" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C166" s="19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="B167" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C167" s="19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="B168" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="C168" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="D168" s="26"/>
-    </row>
-    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>188</v>
-      </c>
-      <c r="B169" s="6" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>188</v>
-      </c>
-      <c r="B170" s="6" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="B171" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="C171" s="19" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="B172" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C172" s="19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="B173" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="C173" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="D173" s="26"/>
-    </row>
-    <row r="174" spans="1:4" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="B174" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C174" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="B175" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="C175" s="20">
-        <v>7545410</v>
-      </c>
-      <c r="D175" s="26"/>
-    </row>
-    <row r="176" spans="1:4" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="B176" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C176" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="B177" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C177" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="D177" s="26"/>
-    </row>
-    <row r="178" spans="1:4" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="B178" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="C178" s="23"/>
-    </row>
-    <row r="179" spans="1:4" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="B179" s="23" t="s">
-        <v>335</v>
-      </c>
-      <c r="C179" s="23"/>
-    </row>
-    <row r="180" spans="1:4" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="B180" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="C180" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="D180" s="26"/>
-    </row>
-    <row r="181" spans="1:4" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="B181" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="C181" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="D181" s="26"/>
-    </row>
-    <row r="182" spans="1:4" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="B182" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="C182" s="20">
-        <v>754549</v>
-      </c>
-      <c r="D182" s="26"/>
-    </row>
-    <row r="183" spans="1:4" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="B183" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="C183" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="D183" s="26"/>
-    </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
-        <v>188</v>
-      </c>
-      <c r="B184" s="6" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="B185" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="C185" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="D185" s="26"/>
-    </row>
-    <row r="186" spans="1:4" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="B186" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="C186" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="D186" s="26"/>
-    </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
-        <v>188</v>
-      </c>
-      <c r="B187" s="6" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="B188" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="C188" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="D188" s="26"/>
-    </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
-        <v>188</v>
-      </c>
-      <c r="B189" s="6" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="B190" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C190" s="23"/>
-    </row>
-    <row r="191" spans="1:4" s="18" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="B191" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C191" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="D191" s="26"/>
-    </row>
-    <row r="192" spans="1:4" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="B192" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="C192" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="D192" s="26"/>
-    </row>
-    <row r="193" spans="1:5" s="18" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="B193" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C193" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="B194" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C194" s="19" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
-        <v>300</v>
-      </c>
-      <c r="B195" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C195" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
-        <v>300</v>
-      </c>
-      <c r="B196" t="s">
-        <v>302</v>
-      </c>
-      <c r="C196" s="8" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B197" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="C197" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="D197" s="18">
-        <v>7</v>
-      </c>
-      <c r="E197" s="2"/>
+      <c r="B199" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="C199" s="29" t="s">
+        <v>349</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D197" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Quality"/>
-      </filters>
-    </filterColumn>
-    <sortState ref="A2:D17">
-      <sortCondition ref="D1:D196"/>
+  <autoFilter ref="A1:D199" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState ref="A76:D86">
+      <sortCondition ref="B1:B198"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="C174" r:id="rId1" display="https://learning.aperianglobal.com/" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C76" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C82" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
     <hyperlink ref="C58" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
     <hyperlink ref="C172" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="C80" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="C78" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
     <hyperlink ref="C57" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
     <hyperlink ref="C6" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
     <hyperlink ref="C143" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
@@ -3929,7 +3981,7 @@
     <hyperlink ref="C37" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
     <hyperlink ref="C3" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
     <hyperlink ref="C5" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="C77" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="C81" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
     <hyperlink ref="C142" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
     <hyperlink ref="C129" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
     <hyperlink ref="C126" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
@@ -3988,11 +4040,12 @@
     <hyperlink ref="C194" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
     <hyperlink ref="C147" r:id="rId70" location="/" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
     <hyperlink ref="C66" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
-    <hyperlink ref="C81" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="C77" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
     <hyperlink ref="C120" r:id="rId73" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
     <hyperlink ref="C197" r:id="rId74" xr:uid="{F2ADEBA5-0C71-445C-A95F-04DF2A5F352A}"/>
+    <hyperlink ref="C198" r:id="rId75" xr:uid="{08872648-2473-48A9-BFC8-94A09E40C934}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId75"/>
+  <pageSetup orientation="portrait" r:id="rId76"/>
 </worksheet>
 </file>